--- a/results/MVSE/freebase/MVSE_freebase<l03><NCEK>60.66.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l03><NCEK>60.66.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -602,7 +602,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -617,7 +621,7 @@
         <v>128</v>
       </c>
       <c r="H3" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>50</v>
@@ -633,32 +637,32 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>1.69</v>
+        <v>1.99</v>
       </c>
       <c r="O3" t="n">
-        <v>60.07</v>
+        <v>60.28</v>
       </c>
       <c r="P3" t="n">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4</v>
+        <v>0.72</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_26_16', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -701,32 +705,32 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="O4" t="n">
-        <v>60.05</v>
+        <v>60.07</v>
       </c>
       <c r="P4" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-21_05_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_26_16', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -738,11 +742,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -757,7 +757,7 @@
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -779,20 +779,20 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="O5" t="n">
-        <v>59.82</v>
+        <v>60.05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.41</v>
+        <v>0.3</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_37_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-21_05_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -818,14 +822,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -847,26 +851,26 @@
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1.31</v>
+        <v>1.74</v>
       </c>
       <c r="O6" t="n">
-        <v>59.49</v>
+        <v>59.82</v>
       </c>
       <c r="P6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.76</v>
+        <v>0.41</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_28_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_37_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -897,7 +901,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -919,18 +923,158 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>59.73</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_59_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>128</v>
+      </c>
+      <c r="H8" t="n">
+        <v>500</v>
+      </c>
+      <c r="I8" t="n">
+        <v>50</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>8192</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="O8" t="n">
+        <v>59.49</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_28_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>128</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>50</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>4096</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
         <v>1.91</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O9" t="n">
         <v>58.96</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P9" t="n">
         <v>0.04</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q9" t="n">
         <v>0.28</v>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_20_16', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>

--- a/results/MVSE/freebase/MVSE_freebase<l03><NCEK>60.66.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l03><NCEK>60.66.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,11 @@
           <t>config2str</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>walk_hop</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -580,17 +585,18 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.99</v>
+        <v>1.11</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-19_46_37', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_24_28', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -602,11 +608,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -614,14 +616,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>128</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I3" t="n">
         <v>50</v>
@@ -636,33 +638,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>8192</v>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>1.99</v>
+        <v>1.4</v>
       </c>
       <c r="O3" t="n">
-        <v>60.28</v>
+        <v>60.58</v>
       </c>
       <c r="P3" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_09_28', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -689,7 +692,7 @@
         <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -705,28 +708,29 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>1.69</v>
+        <v>1.23</v>
       </c>
       <c r="O4" t="n">
-        <v>60.07</v>
+        <v>60.37</v>
       </c>
       <c r="P4" t="n">
         <v>0.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_26_16', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_19_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -742,7 +746,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -757,7 +765,7 @@
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -779,26 +787,27 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>1.57</v>
+        <v>1.99</v>
       </c>
       <c r="O5" t="n">
-        <v>60.05</v>
+        <v>60.28</v>
       </c>
       <c r="P5" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3</v>
+        <v>0.72</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-21_05_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -810,11 +819,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -829,7 +834,7 @@
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -851,26 +856,27 @@
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="O6" t="n">
-        <v>59.82</v>
+        <v>60.05</v>
       </c>
       <c r="P6" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_37_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_51_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -882,11 +888,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -901,7 +903,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -923,22 +925,23 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="O7" t="n">
-        <v>59.73</v>
+        <v>60.01</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8</v>
+        <v>0.44</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_59_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_05_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -954,7 +957,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -962,14 +969,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -991,26 +998,27 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.31</v>
+        <v>1.74</v>
       </c>
       <c r="O8" t="n">
-        <v>59.49</v>
+        <v>59.82</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.76</v>
+        <v>0.41</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_28_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_37_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1041,7 +1049,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1063,22 +1071,165 @@
         <v>2</v>
       </c>
       <c r="N9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>59.73</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_59_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>128</v>
+      </c>
+      <c r="H10" t="n">
+        <v>500</v>
+      </c>
+      <c r="I10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>8192</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="O10" t="n">
+        <v>59.49</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_22_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>128</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>50</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>4096</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
         <v>1.91</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O11" t="n">
         <v>58.96</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P11" t="n">
         <v>0.04</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q11" t="n">
         <v>0.28</v>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_20_16', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
+      <c r="S11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/MVSE/freebase/MVSE_freebase<l03><NCEK>60.66.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l03><NCEK>60.66.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,7 +665,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -685,14 +685,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -707,34 +707,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>8192</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="O4" t="n">
-        <v>60.37</v>
+        <v>60.57</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.31</v>
+        <v>0.75</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_19_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_47_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -746,11 +746,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -765,7 +761,7 @@
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -787,20 +783,20 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>1.99</v>
+        <v>1.23</v>
       </c>
       <c r="O5" t="n">
-        <v>60.28</v>
+        <v>60.37</v>
       </c>
       <c r="P5" t="n">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.72</v>
+        <v>0.31</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_19_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
@@ -819,7 +815,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -834,7 +834,7 @@
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -856,27 +856,27 @@
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1.57</v>
+        <v>1.99</v>
       </c>
       <c r="O6" t="n">
-        <v>60.05</v>
+        <v>60.28</v>
       </c>
       <c r="P6" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.33</v>
+        <v>0.72</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_51_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -919,33 +919,33 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="O7" t="n">
-        <v>60.01</v>
+        <v>60.05</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_05_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_51_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -957,11 +957,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -976,7 +972,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -998,27 +994,27 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.74</v>
+        <v>1.22</v>
       </c>
       <c r="O8" t="n">
-        <v>59.82</v>
+        <v>60.02</v>
       </c>
       <c r="P8" t="n">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_37_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_58_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1030,11 +1026,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1049,7 +1041,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1071,20 +1063,20 @@
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="O9" t="n">
-        <v>59.73</v>
+        <v>60.01</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8</v>
+        <v>0.44</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_59_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_05_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -1103,7 +1095,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1118,7 +1114,7 @@
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1140,27 +1136,27 @@
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.31</v>
+        <v>1.74</v>
       </c>
       <c r="O10" t="n">
-        <v>59.49</v>
+        <v>59.82</v>
       </c>
       <c r="P10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.76</v>
+        <v>0.41</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_22_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_37_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1191,7 +1187,7 @@
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1213,23 +1209,165 @@
         <v>2</v>
       </c>
       <c r="N11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>59.73</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_59_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>128</v>
+      </c>
+      <c r="H12" t="n">
+        <v>500</v>
+      </c>
+      <c r="I12" t="n">
+        <v>50</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>8192</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="O12" t="n">
+        <v>59.49</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_22_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>128</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>50</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>4096</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
         <v>1.91</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O13" t="n">
         <v>58.96</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P13" t="n">
         <v>0.04</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q13" t="n">
         <v>0.28</v>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_20_16', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/MVSE/freebase/MVSE_freebase<l03><NCEK>60.66.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l03><NCEK>60.66.xlsx
@@ -539,7 +539,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -592,7 +596,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_24_28', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -608,7 +614,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -638,7 +648,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>4096</v>
+      </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
@@ -677,7 +689,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -707,7 +723,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>4096</v>
+      </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
@@ -746,7 +764,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -799,7 +821,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_19_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -872,7 +896,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_16_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -888,7 +914,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -941,7 +971,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_51_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -957,7 +989,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1010,7 +1046,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_20-23_58_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1026,7 +1064,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1079,7 +1121,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_05_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1152,7 +1196,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_37_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1225,7 +1271,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_59_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1241,7 +1289,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1294,7 +1346,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_22_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1367,7 +1421,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_20_16', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
